--- a/Documentos/backlog.xlsx
+++ b/Documentos/backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arthur\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arthur\Desktop\20201-3adsa-grupo1\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F38B6DF6-2307-4EA3-BC8B-0A19544B6353}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3A5A3A-FCFB-4772-BCA5-E8F099BF4FFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Documentação e Matriz (2)" sheetId="6" r:id="rId1"/>
@@ -486,9 +486,6 @@
     <t>Trello</t>
   </si>
   <si>
-    <t>Estrutura do projeto JAVA</t>
-  </si>
-  <si>
     <t>Sistema - API REST</t>
   </si>
   <si>
@@ -526,6 +523,9 @@
   </si>
   <si>
     <t>Projetado</t>
+  </si>
+  <si>
+    <t>Passar API de Kotlin para JAVA</t>
   </si>
 </sst>
 </file>
@@ -2250,10 +2250,10 @@
   <dimension ref="B1:V109"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="7" topLeftCell="F74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="7" topLeftCell="F50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="M17" sqref="M17"/>
+      <selection pane="bottomRight" activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -2559,7 +2559,7 @@
       <c r="S10" s="49"/>
       <c r="T10" s="49"/>
       <c r="U10" s="49" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="2:22" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -2591,7 +2591,7 @@
       <c r="S11" s="49"/>
       <c r="T11" s="49"/>
       <c r="U11" s="49" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="2:22" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2623,7 +2623,7 @@
       <c r="S12" s="49"/>
       <c r="T12" s="49"/>
       <c r="U12" s="49" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="2:22" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3491,7 +3491,7 @@
       <c r="S42" s="49"/>
       <c r="T42" s="49"/>
       <c r="U42" s="49" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3523,7 +3523,7 @@
       <c r="S43" s="49"/>
       <c r="T43" s="49"/>
       <c r="U43" s="49" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="44" spans="2:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -3555,7 +3555,7 @@
       <c r="S44" s="49"/>
       <c r="T44" s="49"/>
       <c r="U44" s="49" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3587,7 +3587,7 @@
       <c r="S45" s="49"/>
       <c r="T45" s="49"/>
       <c r="U45" s="49" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3619,7 +3619,7 @@
       <c r="S46" s="49"/>
       <c r="T46" s="49"/>
       <c r="U46" s="49" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="2:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -3683,7 +3683,7 @@
       <c r="S48" s="49"/>
       <c r="T48" s="49"/>
       <c r="U48" s="49" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="49" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3715,7 +3715,7 @@
       <c r="S49" s="49"/>
       <c r="T49" s="49"/>
       <c r="U49" s="49" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="50" spans="2:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -3747,7 +3747,7 @@
       <c r="S50" s="49"/>
       <c r="T50" s="49"/>
       <c r="U50" s="49" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="51" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3779,7 +3779,7 @@
       <c r="S51" s="49"/>
       <c r="T51" s="49"/>
       <c r="U51" s="49" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="52" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3811,7 +3811,7 @@
       <c r="S52" s="49"/>
       <c r="T52" s="49"/>
       <c r="U52" s="49" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="53" spans="2:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -4030,7 +4030,7 @@
         <v>87</v>
       </c>
       <c r="D61" s="60" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E61" s="59"/>
       <c r="F61" s="59"/>
@@ -4060,7 +4060,7 @@
         <v>88</v>
       </c>
       <c r="D62" s="49" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="E62" s="49"/>
       <c r="F62" s="49"/>
@@ -4092,7 +4092,7 @@
         <v>89</v>
       </c>
       <c r="D63" s="49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E63" s="49"/>
       <c r="F63" s="49"/>
@@ -4532,7 +4532,7 @@
         <v>47</v>
       </c>
       <c r="D79" s="60" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E79" s="59"/>
       <c r="F79" s="59"/>
@@ -4562,7 +4562,7 @@
         <v>48</v>
       </c>
       <c r="D80" s="49" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E80" s="49"/>
       <c r="F80" s="49"/>
@@ -4594,7 +4594,7 @@
         <v>49</v>
       </c>
       <c r="D81" s="49" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E81" s="49"/>
       <c r="F81" s="49"/>
@@ -4626,7 +4626,7 @@
         <v>50</v>
       </c>
       <c r="D82" s="49" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E82" s="49"/>
       <c r="F82" s="49"/>
@@ -4658,7 +4658,7 @@
         <v>51</v>
       </c>
       <c r="D83" s="49" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E83" s="49"/>
       <c r="F83" s="49"/>
@@ -4688,7 +4688,7 @@
         <v>52</v>
       </c>
       <c r="D84" s="49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E84" s="49"/>
       <c r="F84" s="49"/>
@@ -4718,7 +4718,7 @@
         <v>53</v>
       </c>
       <c r="D85" s="49" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E85" s="49"/>
       <c r="F85" s="49"/>
@@ -4748,7 +4748,7 @@
         <v>104</v>
       </c>
       <c r="D86" s="49" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E86" s="49"/>
       <c r="F86" s="49"/>
@@ -4778,7 +4778,7 @@
         <v>105</v>
       </c>
       <c r="D87" s="49" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E87" s="49"/>
       <c r="F87" s="49"/>

--- a/Documentos/backlog.xlsx
+++ b/Documentos/backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arthur\Desktop\20201-3adsa-grupo1\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3A5A3A-FCFB-4772-BCA5-E8F099BF4FFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BF9BAA-7F40-403F-82D4-387390CC0A8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="176">
   <si>
     <t>Proposto</t>
   </si>
@@ -327,27 +327,6 @@
     <t>3.7.1</t>
   </si>
   <si>
-    <t>3.8</t>
-  </si>
-  <si>
-    <t>3.9</t>
-  </si>
-  <si>
-    <t>3.10</t>
-  </si>
-  <si>
-    <t>3.11</t>
-  </si>
-  <si>
-    <t>3.11.1</t>
-  </si>
-  <si>
-    <t>3.11.2</t>
-  </si>
-  <si>
-    <t>3.12</t>
-  </si>
-  <si>
     <t>3.12.1</t>
   </si>
   <si>
@@ -492,9 +471,6 @@
     <t>Sistema - Dashboard</t>
   </si>
   <si>
-    <t xml:space="preserve">A classe controller deverá ditar os endpoints consumidos pela Dashboard </t>
-  </si>
-  <si>
     <t>Estrutura HTML da dashboard</t>
   </si>
   <si>
@@ -507,9 +483,6 @@
     <t>Conexão da API REST com a dashboard</t>
   </si>
   <si>
-    <t xml:space="preserve">Filtro de localização do Google Maps </t>
-  </si>
-  <si>
     <t xml:space="preserve">Traçar rotas </t>
   </si>
   <si>
@@ -526,13 +499,85 @@
   </si>
   <si>
     <t>Passar API de Kotlin para JAVA</t>
+  </si>
+  <si>
+    <t>Endpoints de requisição (Controller Usuário, Viagens e Paradas)</t>
+  </si>
+  <si>
+    <t>Cadastrar usuários (POST)</t>
+  </si>
+  <si>
+    <t>Login (POST)</t>
+  </si>
+  <si>
+    <t>Cadastrar viagem (POST)</t>
+  </si>
+  <si>
+    <t>Listar por usuário id (GET)</t>
+  </si>
+  <si>
+    <t>Buscar por destino (GET)</t>
+  </si>
+  <si>
+    <t>Buscar por viagem (GET)</t>
+  </si>
+  <si>
+    <t>Cadastrar paradas (POST)</t>
+  </si>
+  <si>
+    <t>3.6.3</t>
+  </si>
+  <si>
+    <t>3.6.4</t>
+  </si>
+  <si>
+    <t>3.6.5</t>
+  </si>
+  <si>
+    <t>3.6.6</t>
+  </si>
+  <si>
+    <t>3.6.7</t>
+  </si>
+  <si>
+    <t>Classe Documents</t>
+  </si>
+  <si>
+    <t>Classe viagem</t>
+  </si>
+  <si>
+    <t>Classe paradas</t>
+  </si>
+  <si>
+    <t>Classe usuário</t>
+  </si>
+  <si>
+    <t>3.7.2</t>
+  </si>
+  <si>
+    <t>3.7.3</t>
+  </si>
+  <si>
+    <t>Classes Data Transfer Objetc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classes Repostorys </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classes Services </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filtro de paradas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desenho de arquitetura de aplicação </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -660,8 +705,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -701,6 +750,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1167,7 +1222,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1399,6 +1454,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -2250,10 +2309,10 @@
   <dimension ref="B1:V109"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="7" topLeftCell="F50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="7" topLeftCell="F56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="I60" sqref="I60"/>
+      <selection pane="bottomRight" activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -2347,7 +2406,7 @@
     </row>
     <row r="4" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E4" s="71" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F4" s="72"/>
       <c r="G4" s="72"/>
@@ -2500,13 +2559,13 @@
     </row>
     <row r="9" spans="2:22" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="29" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C9" s="27" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="49" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E9" s="49"/>
       <c r="F9" s="49"/>
@@ -2538,7 +2597,7 @@
         <v>27</v>
       </c>
       <c r="D10" s="49" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E10" s="49"/>
       <c r="F10" s="49"/>
@@ -2559,7 +2618,7 @@
       <c r="S10" s="49"/>
       <c r="T10" s="49"/>
       <c r="U10" s="49" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="2:22" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -2570,7 +2629,7 @@
         <v>28</v>
       </c>
       <c r="D11" s="49" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E11" s="49"/>
       <c r="F11" s="49"/>
@@ -2591,7 +2650,7 @@
       <c r="S11" s="49"/>
       <c r="T11" s="49"/>
       <c r="U11" s="49" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="2:22" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2602,7 +2661,7 @@
         <v>29</v>
       </c>
       <c r="D12" s="49" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E12" s="49"/>
       <c r="F12" s="49"/>
@@ -2623,7 +2682,7 @@
       <c r="S12" s="49"/>
       <c r="T12" s="49"/>
       <c r="U12" s="49" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="2:22" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2634,7 +2693,7 @@
         <v>30</v>
       </c>
       <c r="D13" s="49" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E13" s="49"/>
       <c r="F13" s="49"/>
@@ -2666,7 +2725,7 @@
         <v>31</v>
       </c>
       <c r="D14" s="49" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E14" s="49"/>
       <c r="F14" s="49"/>
@@ -2698,7 +2757,7 @@
         <v>33</v>
       </c>
       <c r="D15" s="49" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E15" s="49"/>
       <c r="F15" s="49"/>
@@ -2730,7 +2789,7 @@
         <v>32</v>
       </c>
       <c r="D16" s="49" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E16" s="49"/>
       <c r="F16" s="49"/>
@@ -2762,7 +2821,7 @@
         <v>56</v>
       </c>
       <c r="D17" s="49" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E17" s="49"/>
       <c r="F17" s="49"/>
@@ -2794,7 +2853,7 @@
         <v>57</v>
       </c>
       <c r="D18" s="49" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E18" s="49"/>
       <c r="F18" s="49"/>
@@ -2826,7 +2885,7 @@
         <v>34</v>
       </c>
       <c r="D19" s="49" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E19" s="49"/>
       <c r="F19" s="49"/>
@@ -2858,7 +2917,7 @@
         <v>35</v>
       </c>
       <c r="D20" s="49" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E20" s="49"/>
       <c r="F20" s="49"/>
@@ -2890,7 +2949,7 @@
         <v>36</v>
       </c>
       <c r="D21" s="49" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E21" s="49"/>
       <c r="F21" s="49"/>
@@ -3184,7 +3243,7 @@
         <v>67</v>
       </c>
       <c r="D32" s="49" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E32" s="49"/>
       <c r="F32" s="49"/>
@@ -3216,7 +3275,7 @@
         <v>66</v>
       </c>
       <c r="D33" s="49" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E33" s="49"/>
       <c r="F33" s="49"/>
@@ -3248,7 +3307,7 @@
         <v>68</v>
       </c>
       <c r="D34" s="49" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E34" s="49"/>
       <c r="F34" s="49"/>
@@ -3438,7 +3497,7 @@
         <v>74</v>
       </c>
       <c r="D41" s="49" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E41" s="49"/>
       <c r="F41" s="49"/>
@@ -3470,7 +3529,7 @@
         <v>75</v>
       </c>
       <c r="D42" s="49" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E42" s="49"/>
       <c r="F42" s="49"/>
@@ -3491,7 +3550,7 @@
       <c r="S42" s="49"/>
       <c r="T42" s="49"/>
       <c r="U42" s="49" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3502,7 +3561,7 @@
         <v>76</v>
       </c>
       <c r="D43" s="49" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E43" s="49"/>
       <c r="F43" s="49"/>
@@ -3523,7 +3582,7 @@
       <c r="S43" s="49"/>
       <c r="T43" s="49"/>
       <c r="U43" s="49" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="44" spans="2:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -3534,7 +3593,7 @@
         <v>80</v>
       </c>
       <c r="D44" s="49" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E44" s="49"/>
       <c r="F44" s="49"/>
@@ -3555,7 +3614,7 @@
       <c r="S44" s="49"/>
       <c r="T44" s="49"/>
       <c r="U44" s="49" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="45" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3566,7 +3625,7 @@
         <v>77</v>
       </c>
       <c r="D45" s="49" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E45" s="49"/>
       <c r="F45" s="49"/>
@@ -3587,7 +3646,7 @@
       <c r="S45" s="49"/>
       <c r="T45" s="49"/>
       <c r="U45" s="49" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="46" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3598,7 +3657,7 @@
         <v>81</v>
       </c>
       <c r="D46" s="49" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E46" s="49"/>
       <c r="F46" s="49"/>
@@ -3619,7 +3678,7 @@
       <c r="S46" s="49"/>
       <c r="T46" s="49"/>
       <c r="U46" s="49" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47" spans="2:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -3630,7 +3689,7 @@
         <v>82</v>
       </c>
       <c r="D47" s="49" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E47" s="49"/>
       <c r="F47" s="49"/>
@@ -3662,7 +3721,7 @@
         <v>2</v>
       </c>
       <c r="D48" s="49" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E48" s="49"/>
       <c r="F48" s="49"/>
@@ -3683,7 +3742,7 @@
       <c r="S48" s="49"/>
       <c r="T48" s="49"/>
       <c r="U48" s="49" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="49" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3694,7 +3753,7 @@
         <v>37</v>
       </c>
       <c r="D49" s="49" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E49" s="49"/>
       <c r="F49" s="49"/>
@@ -3715,7 +3774,7 @@
       <c r="S49" s="49"/>
       <c r="T49" s="49"/>
       <c r="U49" s="49" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="50" spans="2:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -3726,7 +3785,7 @@
         <v>83</v>
       </c>
       <c r="D50" s="49" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E50" s="49"/>
       <c r="F50" s="49"/>
@@ -3747,7 +3806,7 @@
       <c r="S50" s="49"/>
       <c r="T50" s="49"/>
       <c r="U50" s="49" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3758,7 +3817,7 @@
         <v>38</v>
       </c>
       <c r="D51" s="49" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E51" s="49"/>
       <c r="F51" s="49"/>
@@ -3779,7 +3838,7 @@
       <c r="S51" s="49"/>
       <c r="T51" s="49"/>
       <c r="U51" s="49" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3790,7 +3849,7 @@
         <v>39</v>
       </c>
       <c r="D52" s="49" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E52" s="49"/>
       <c r="F52" s="49"/>
@@ -3811,7 +3870,7 @@
       <c r="S52" s="49"/>
       <c r="T52" s="49"/>
       <c r="U52" s="49" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="53" spans="2:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -3821,11 +3880,15 @@
       <c r="C53" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="D53" s="49"/>
+      <c r="D53" s="49" t="s">
+        <v>175</v>
+      </c>
       <c r="E53" s="49"/>
       <c r="F53" s="49"/>
       <c r="G53" s="49"/>
-      <c r="H53" s="49"/>
+      <c r="H53" s="49" t="s">
+        <v>21</v>
+      </c>
       <c r="I53" s="49"/>
       <c r="J53" s="49"/>
       <c r="K53" s="49"/>
@@ -4003,7 +4066,7 @@
       <c r="C60" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="D60" s="49"/>
+      <c r="D60" s="86"/>
       <c r="E60" s="49"/>
       <c r="F60" s="49"/>
       <c r="G60" s="49"/>
@@ -4030,7 +4093,7 @@
         <v>87</v>
       </c>
       <c r="D61" s="60" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E61" s="59"/>
       <c r="F61" s="59"/>
@@ -4060,7 +4123,7 @@
         <v>88</v>
       </c>
       <c r="D62" s="49" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E62" s="49"/>
       <c r="F62" s="49"/>
@@ -4091,8 +4154,8 @@
       <c r="C63" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="D63" s="49" t="s">
-        <v>149</v>
+      <c r="D63" s="85" t="s">
+        <v>152</v>
       </c>
       <c r="E63" s="49"/>
       <c r="F63" s="49"/>
@@ -4121,7 +4184,9 @@
       <c r="C64" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="D64" s="49"/>
+      <c r="D64" s="85" t="s">
+        <v>153</v>
+      </c>
       <c r="E64" s="49"/>
       <c r="F64" s="49"/>
       <c r="G64" s="49"/>
@@ -4149,7 +4214,9 @@
       <c r="C65" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="D65" s="49"/>
+      <c r="D65" s="49" t="s">
+        <v>154</v>
+      </c>
       <c r="E65" s="49"/>
       <c r="F65" s="49"/>
       <c r="G65" s="49"/>
@@ -4175,9 +4242,11 @@
         <v>59</v>
       </c>
       <c r="C66" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="D66" s="49"/>
+        <v>160</v>
+      </c>
+      <c r="D66" s="49" t="s">
+        <v>155</v>
+      </c>
       <c r="E66" s="49"/>
       <c r="F66" s="49"/>
       <c r="G66" s="49"/>
@@ -4201,9 +4270,11 @@
         <v>60</v>
       </c>
       <c r="C67" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="D67" s="49"/>
+        <v>161</v>
+      </c>
+      <c r="D67" s="49" t="s">
+        <v>156</v>
+      </c>
       <c r="E67" s="49"/>
       <c r="F67" s="49"/>
       <c r="G67" s="49"/>
@@ -4227,9 +4298,11 @@
         <v>61</v>
       </c>
       <c r="C68" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="D68" s="49"/>
+        <v>162</v>
+      </c>
+      <c r="D68" s="49" t="s">
+        <v>157</v>
+      </c>
       <c r="E68" s="49"/>
       <c r="F68" s="49"/>
       <c r="G68" s="49"/>
@@ -4255,9 +4328,11 @@
         <v>62</v>
       </c>
       <c r="C69" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="D69" s="49"/>
+        <v>163</v>
+      </c>
+      <c r="D69" s="49" t="s">
+        <v>158</v>
+      </c>
       <c r="E69" s="49"/>
       <c r="F69" s="49"/>
       <c r="G69" s="49"/>
@@ -4283,9 +4358,11 @@
         <v>63</v>
       </c>
       <c r="C70" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="D70" s="49"/>
+        <v>164</v>
+      </c>
+      <c r="D70" s="49" t="s">
+        <v>159</v>
+      </c>
       <c r="E70" s="49"/>
       <c r="F70" s="49"/>
       <c r="G70" s="49"/>
@@ -4311,9 +4388,11 @@
         <v>64</v>
       </c>
       <c r="C71" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="D71" s="49"/>
+        <v>92</v>
+      </c>
+      <c r="D71" s="49" t="s">
+        <v>165</v>
+      </c>
       <c r="E71" s="49"/>
       <c r="F71" s="49"/>
       <c r="G71" s="49"/>
@@ -4339,9 +4418,11 @@
         <v>65</v>
       </c>
       <c r="C72" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="D72" s="49"/>
+        <v>93</v>
+      </c>
+      <c r="D72" s="49" t="s">
+        <v>166</v>
+      </c>
       <c r="E72" s="49"/>
       <c r="F72" s="49"/>
       <c r="G72" s="49"/>
@@ -4365,9 +4446,11 @@
         <v>66</v>
       </c>
       <c r="C73" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="D73" s="49"/>
+        <v>169</v>
+      </c>
+      <c r="D73" s="49" t="s">
+        <v>167</v>
+      </c>
       <c r="E73" s="49"/>
       <c r="F73" s="49"/>
       <c r="G73" s="49"/>
@@ -4391,9 +4474,11 @@
         <v>67</v>
       </c>
       <c r="C74" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="D74" s="49"/>
+        <v>170</v>
+      </c>
+      <c r="D74" s="49" t="s">
+        <v>168</v>
+      </c>
       <c r="E74" s="49"/>
       <c r="F74" s="49"/>
       <c r="G74" s="49"/>
@@ -4417,9 +4502,11 @@
         <v>68</v>
       </c>
       <c r="C75" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="D75" s="49"/>
+        <v>94</v>
+      </c>
+      <c r="D75" s="49" t="s">
+        <v>171</v>
+      </c>
       <c r="E75" s="49"/>
       <c r="F75" s="49"/>
       <c r="G75" s="49"/>
@@ -4445,9 +4532,11 @@
         <v>69</v>
       </c>
       <c r="C76" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="D76" s="49"/>
+        <v>95</v>
+      </c>
+      <c r="D76" s="49" t="s">
+        <v>172</v>
+      </c>
       <c r="E76" s="49"/>
       <c r="F76" s="49"/>
       <c r="G76" s="49"/>
@@ -4473,9 +4562,11 @@
         <v>70</v>
       </c>
       <c r="C77" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="D77" s="49"/>
+        <v>96</v>
+      </c>
+      <c r="D77" s="85" t="s">
+        <v>173</v>
+      </c>
       <c r="E77" s="49"/>
       <c r="F77" s="49"/>
       <c r="G77" s="49"/>
@@ -4503,7 +4594,7 @@
       <c r="C78" s="27">
         <v>4</v>
       </c>
-      <c r="D78" s="49"/>
+      <c r="D78" s="85"/>
       <c r="E78" s="49"/>
       <c r="F78" s="49"/>
       <c r="G78" s="49"/>
@@ -4524,35 +4615,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:21" s="28" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B79" s="26">
         <v>72</v>
       </c>
       <c r="C79" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="D79" s="60" t="s">
-        <v>148</v>
-      </c>
-      <c r="E79" s="59"/>
-      <c r="F79" s="59"/>
-      <c r="G79" s="59"/>
-      <c r="H79" s="59"/>
-      <c r="I79" s="59"/>
-      <c r="J79" s="59"/>
-      <c r="K79" s="59"/>
-      <c r="L79" s="59"/>
-      <c r="M79" s="59"/>
-      <c r="N79" s="59"/>
-      <c r="O79" s="59"/>
-      <c r="P79" s="59"/>
-      <c r="Q79" s="59"/>
-      <c r="R79" s="59"/>
-      <c r="S79" s="59"/>
-      <c r="T79" s="59"/>
-      <c r="U79" s="59" t="s">
-        <v>0</v>
-      </c>
+      <c r="D79" s="85"/>
+      <c r="E79" s="49"/>
+      <c r="F79" s="49"/>
+      <c r="G79" s="49"/>
+      <c r="H79" s="49"/>
+      <c r="I79" s="49"/>
+      <c r="J79" s="49"/>
+      <c r="K79" s="49"/>
+      <c r="L79" s="49"/>
+      <c r="M79" s="49"/>
+      <c r="N79" s="49"/>
+      <c r="O79" s="49"/>
+      <c r="P79" s="49"/>
+      <c r="Q79" s="49"/>
+      <c r="R79" s="49"/>
+      <c r="S79" s="49"/>
+      <c r="T79" s="49"/>
+      <c r="U79" s="49"/>
     </row>
     <row r="80" spans="2:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B80" s="26">
@@ -4561,15 +4648,11 @@
       <c r="C80" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D80" s="49" t="s">
-        <v>150</v>
-      </c>
+      <c r="D80" s="85"/>
       <c r="E80" s="49"/>
       <c r="F80" s="49"/>
       <c r="G80" s="49"/>
-      <c r="H80" s="49" t="s">
-        <v>21</v>
-      </c>
+      <c r="H80" s="49"/>
       <c r="I80" s="49"/>
       <c r="J80" s="49"/>
       <c r="K80" s="49"/>
@@ -4582,9 +4665,7 @@
       <c r="R80" s="49"/>
       <c r="S80" s="49"/>
       <c r="T80" s="49"/>
-      <c r="U80" s="49" t="s">
-        <v>0</v>
-      </c>
+      <c r="U80" s="49"/>
     </row>
     <row r="81" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B81" s="29">
@@ -4593,15 +4674,11 @@
       <c r="C81" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="D81" s="49" t="s">
-        <v>151</v>
-      </c>
+      <c r="D81" s="49"/>
       <c r="E81" s="49"/>
       <c r="F81" s="49"/>
       <c r="G81" s="49"/>
-      <c r="H81" s="49" t="s">
-        <v>20</v>
-      </c>
+      <c r="H81" s="49"/>
       <c r="I81" s="49"/>
       <c r="J81" s="49"/>
       <c r="K81" s="49"/>
@@ -4614,9 +4691,7 @@
       <c r="R81" s="49"/>
       <c r="S81" s="49"/>
       <c r="T81" s="49"/>
-      <c r="U81" s="49" t="s">
-        <v>0</v>
-      </c>
+      <c r="U81" s="49"/>
     </row>
     <row r="82" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B82" s="26">
@@ -4625,15 +4700,11 @@
       <c r="C82" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="D82" s="49" t="s">
-        <v>152</v>
-      </c>
+      <c r="D82" s="49"/>
       <c r="E82" s="49"/>
       <c r="F82" s="49"/>
       <c r="G82" s="49"/>
-      <c r="H82" s="49" t="s">
-        <v>20</v>
-      </c>
+      <c r="H82" s="49"/>
       <c r="I82" s="49"/>
       <c r="J82" s="49"/>
       <c r="K82" s="49"/>
@@ -4646,9 +4717,7 @@
       <c r="R82" s="49"/>
       <c r="S82" s="49"/>
       <c r="T82" s="49"/>
-      <c r="U82" s="49" t="s">
-        <v>0</v>
-      </c>
+      <c r="U82" s="49"/>
     </row>
     <row r="83" spans="2:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B83" s="26">
@@ -4657,9 +4726,7 @@
       <c r="C83" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="D83" s="49" t="s">
-        <v>153</v>
-      </c>
+      <c r="D83" s="49"/>
       <c r="E83" s="49"/>
       <c r="F83" s="49"/>
       <c r="G83" s="49"/>
@@ -4676,9 +4743,7 @@
       <c r="R83" s="49"/>
       <c r="S83" s="49"/>
       <c r="T83" s="49"/>
-      <c r="U83" s="49" t="s">
-        <v>0</v>
-      </c>
+      <c r="U83" s="49"/>
     </row>
     <row r="84" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B84" s="29">
@@ -4687,9 +4752,7 @@
       <c r="C84" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="D84" s="49" t="s">
-        <v>154</v>
-      </c>
+      <c r="D84" s="49"/>
       <c r="E84" s="49"/>
       <c r="F84" s="49"/>
       <c r="G84" s="49"/>
@@ -4706,9 +4769,7 @@
       <c r="R84" s="49"/>
       <c r="S84" s="49"/>
       <c r="T84" s="49"/>
-      <c r="U84" s="49" t="s">
-        <v>0</v>
-      </c>
+      <c r="U84" s="49"/>
     </row>
     <row r="85" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B85" s="26">
@@ -4717,9 +4778,7 @@
       <c r="C85" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D85" s="49" t="s">
-        <v>155</v>
-      </c>
+      <c r="D85" s="49"/>
       <c r="E85" s="49"/>
       <c r="F85" s="49"/>
       <c r="G85" s="49"/>
@@ -4736,20 +4795,16 @@
       <c r="R85" s="49"/>
       <c r="S85" s="49"/>
       <c r="T85" s="49"/>
-      <c r="U85" s="49" t="s">
-        <v>0</v>
-      </c>
+      <c r="U85" s="49"/>
     </row>
     <row r="86" spans="2:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B86" s="26">
         <v>79</v>
       </c>
       <c r="C86" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="D86" s="49" t="s">
-        <v>156</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="D86" s="49"/>
       <c r="E86" s="49"/>
       <c r="F86" s="49"/>
       <c r="G86" s="49"/>
@@ -4766,20 +4821,16 @@
       <c r="R86" s="49"/>
       <c r="S86" s="49"/>
       <c r="T86" s="49"/>
-      <c r="U86" s="49" t="s">
-        <v>0</v>
-      </c>
+      <c r="U86" s="49"/>
     </row>
     <row r="87" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B87" s="29">
         <v>80</v>
       </c>
       <c r="C87" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="D87" s="49" t="s">
-        <v>157</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="D87" s="49"/>
       <c r="E87" s="49"/>
       <c r="F87" s="49"/>
       <c r="G87" s="49"/>
@@ -4796,16 +4847,14 @@
       <c r="R87" s="49"/>
       <c r="S87" s="49"/>
       <c r="T87" s="49"/>
-      <c r="U87" s="49" t="s">
-        <v>0</v>
-      </c>
+      <c r="U87" s="49"/>
     </row>
     <row r="88" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B88" s="26">
         <v>81</v>
       </c>
       <c r="C88" s="27" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D88" s="49"/>
       <c r="E88" s="49"/>
@@ -4831,7 +4880,7 @@
         <v>82</v>
       </c>
       <c r="C89" s="27" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D89" s="49"/>
       <c r="E89" s="49"/>
@@ -4852,44 +4901,52 @@
       <c r="T89" s="49"/>
       <c r="U89" s="49"/>
     </row>
-    <row r="90" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:21" s="28" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B90" s="29">
         <v>83</v>
       </c>
       <c r="C90" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="D90" s="49"/>
-      <c r="E90" s="49"/>
-      <c r="F90" s="49"/>
-      <c r="G90" s="49"/>
-      <c r="H90" s="49"/>
-      <c r="I90" s="49"/>
-      <c r="J90" s="49"/>
-      <c r="K90" s="49"/>
-      <c r="L90" s="49"/>
-      <c r="M90" s="49"/>
-      <c r="N90" s="49"/>
-      <c r="O90" s="49"/>
-      <c r="P90" s="49"/>
-      <c r="Q90" s="49"/>
-      <c r="R90" s="49"/>
-      <c r="S90" s="49"/>
-      <c r="T90" s="49"/>
-      <c r="U90" s="49"/>
+        <v>101</v>
+      </c>
+      <c r="D90" s="60" t="s">
+        <v>141</v>
+      </c>
+      <c r="E90" s="59"/>
+      <c r="F90" s="59"/>
+      <c r="G90" s="59"/>
+      <c r="H90" s="59"/>
+      <c r="I90" s="59"/>
+      <c r="J90" s="59"/>
+      <c r="K90" s="59"/>
+      <c r="L90" s="59"/>
+      <c r="M90" s="59"/>
+      <c r="N90" s="59"/>
+      <c r="O90" s="59"/>
+      <c r="P90" s="59"/>
+      <c r="Q90" s="59"/>
+      <c r="R90" s="59"/>
+      <c r="S90" s="59"/>
+      <c r="T90" s="59"/>
+      <c r="U90" s="59" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B91" s="26">
         <v>84</v>
       </c>
       <c r="C91" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="D91" s="49"/>
+        <v>102</v>
+      </c>
+      <c r="D91" s="49" t="s">
+        <v>142</v>
+      </c>
       <c r="E91" s="49"/>
       <c r="F91" s="49"/>
       <c r="G91" s="49"/>
-      <c r="H91" s="49"/>
+      <c r="H91" s="49" t="s">
+        <v>21</v>
+      </c>
       <c r="I91" s="49"/>
       <c r="J91" s="49"/>
       <c r="K91" s="49"/>
@@ -4902,20 +4959,26 @@
       <c r="R91" s="49"/>
       <c r="S91" s="49"/>
       <c r="T91" s="49"/>
-      <c r="U91" s="49"/>
+      <c r="U91" s="49" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="92" spans="2:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B92" s="26">
         <v>85</v>
       </c>
       <c r="C92" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="D92" s="49"/>
+        <v>103</v>
+      </c>
+      <c r="D92" s="49" t="s">
+        <v>143</v>
+      </c>
       <c r="E92" s="49"/>
       <c r="F92" s="49"/>
       <c r="G92" s="49"/>
-      <c r="H92" s="49"/>
+      <c r="H92" s="49" t="s">
+        <v>20</v>
+      </c>
       <c r="I92" s="49"/>
       <c r="J92" s="49"/>
       <c r="K92" s="49"/>
@@ -4928,20 +4991,26 @@
       <c r="R92" s="49"/>
       <c r="S92" s="49"/>
       <c r="T92" s="49"/>
-      <c r="U92" s="49"/>
+      <c r="U92" s="49" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="93" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B93" s="29">
         <v>86</v>
       </c>
       <c r="C93" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="D93" s="49"/>
+        <v>104</v>
+      </c>
+      <c r="D93" s="49" t="s">
+        <v>144</v>
+      </c>
       <c r="E93" s="49"/>
       <c r="F93" s="49"/>
       <c r="G93" s="49"/>
-      <c r="H93" s="49"/>
+      <c r="H93" s="49" t="s">
+        <v>20</v>
+      </c>
       <c r="I93" s="49"/>
       <c r="J93" s="49"/>
       <c r="K93" s="49"/>
@@ -4954,16 +5023,20 @@
       <c r="R93" s="49"/>
       <c r="S93" s="49"/>
       <c r="T93" s="49"/>
-      <c r="U93" s="49"/>
+      <c r="U93" s="49" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="94" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B94" s="26">
         <v>87</v>
       </c>
       <c r="C94" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="D94" s="49"/>
+        <v>104</v>
+      </c>
+      <c r="D94" s="49" t="s">
+        <v>145</v>
+      </c>
       <c r="E94" s="49"/>
       <c r="F94" s="49"/>
       <c r="G94" s="49"/>
@@ -4980,16 +5053,20 @@
       <c r="R94" s="49"/>
       <c r="S94" s="49"/>
       <c r="T94" s="49"/>
-      <c r="U94" s="49"/>
+      <c r="U94" s="49" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="95" spans="2:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B95" s="26">
         <v>88</v>
       </c>
       <c r="C95" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="D95" s="49"/>
+        <v>105</v>
+      </c>
+      <c r="D95" s="49" t="s">
+        <v>174</v>
+      </c>
       <c r="E95" s="49"/>
       <c r="F95" s="49"/>
       <c r="G95" s="49"/>
@@ -5006,16 +5083,20 @@
       <c r="R95" s="49"/>
       <c r="S95" s="49"/>
       <c r="T95" s="49"/>
-      <c r="U95" s="49"/>
+      <c r="U95" s="49" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="96" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B96" s="29">
         <v>89</v>
       </c>
       <c r="C96" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="D96" s="49"/>
+        <v>106</v>
+      </c>
+      <c r="D96" s="49" t="s">
+        <v>146</v>
+      </c>
       <c r="E96" s="49"/>
       <c r="F96" s="49"/>
       <c r="G96" s="49"/>
@@ -5032,16 +5113,20 @@
       <c r="R96" s="49"/>
       <c r="S96" s="49"/>
       <c r="T96" s="49"/>
-      <c r="U96" s="49"/>
+      <c r="U96" s="49" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="97" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B97" s="26">
         <v>90</v>
       </c>
       <c r="C97" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="D97" s="49"/>
+        <v>107</v>
+      </c>
+      <c r="D97" s="49" t="s">
+        <v>147</v>
+      </c>
       <c r="E97" s="49"/>
       <c r="F97" s="49"/>
       <c r="G97" s="49"/>
@@ -5058,16 +5143,20 @@
       <c r="R97" s="49"/>
       <c r="S97" s="49"/>
       <c r="T97" s="49"/>
-      <c r="U97" s="49"/>
+      <c r="U97" s="49" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="98" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B98" s="26">
         <v>91</v>
       </c>
       <c r="C98" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="D98" s="49"/>
+        <v>108</v>
+      </c>
+      <c r="D98" s="49" t="s">
+        <v>148</v>
+      </c>
       <c r="E98" s="49"/>
       <c r="F98" s="49"/>
       <c r="G98" s="49"/>
@@ -5084,14 +5173,16 @@
       <c r="R98" s="49"/>
       <c r="S98" s="49"/>
       <c r="T98" s="49"/>
-      <c r="U98" s="49"/>
+      <c r="U98" s="49" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="99" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B99" s="29">
         <v>92</v>
       </c>
       <c r="C99" s="36" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D99" s="49"/>
       <c r="E99" s="49"/>
@@ -5320,11 +5411,12 @@
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="O5:P6"/>
   </mergeCells>
+  <phoneticPr fontId="20" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I40:I56 I8:I38 I61:I108" xr:uid="{CCF0E93B-E701-4254-9659-A3DB4D311139}">
       <formula1>"Máxima,Alta,Média,Baixa,Mínima"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H83:H91 H8:H25 H61:H70 H40:H53 H80:H81 H31:H38" xr:uid="{C6DF508E-944E-4154-8F9D-531F7223BA80}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:H25 H61:H70 H91:H92 H31:H38 H94:H98 H79:H82 H40:H53" xr:uid="{C6DF508E-944E-4154-8F9D-531F7223BA80}">
       <formula1>$T$1:$T$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U8:U108" xr:uid="{896C6ADC-A470-4136-B4BB-7A8530057896}">
